--- a/人工调度台埋点耗时统计/大数据埋点/06110617/统计-portalWayBillClickTrace-调度台用户操作耗时埋点0611.xlsx
+++ b/人工调度台埋点耗时统计/大数据埋点/06110617/统计-portalWayBillClickTrace-调度台用户操作耗时埋点0611.xlsx
@@ -1,36 +1,420 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="28060" windowHeight="14100" activeTab="1"/>
+  </bookViews>
   <sheets>
     <sheet name="统计数据" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+  <si>
+    <t>埋点Key</t>
+  </si>
+  <si>
+    <t>样本数</t>
+  </si>
+  <si>
+    <t>平均值</t>
+  </si>
+  <si>
+    <t>75值</t>
+  </si>
+  <si>
+    <t>85值</t>
+  </si>
+  <si>
+    <t>95值</t>
+  </si>
+  <si>
+    <t>1s内数量</t>
+  </si>
+  <si>
+    <t>1s内占比</t>
+  </si>
+  <si>
+    <t>_portal_wayBillClickTrace</t>
+  </si>
+  <si>
+    <t>_portal_wayBillClickTrace_map</t>
+  </si>
+  <si>
+    <t>_portal_wayBillClickTrace_h5</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -38,18 +422,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,52 +1047,55 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H4"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>埋点Key</v>
-      </c>
-      <c r="B1" t="str">
-        <v>样本数</v>
-      </c>
-      <c r="C1" t="str">
-        <v>平均值</v>
-      </c>
-      <c r="D1" t="str">
-        <v>75值</v>
-      </c>
-      <c r="E1" t="str">
-        <v>85值</v>
-      </c>
-      <c r="F1" t="str">
-        <v>95值</v>
-      </c>
-      <c r="G1" t="str">
-        <v>1s内数量</v>
-      </c>
-      <c r="H1" t="str">
-        <v>1s内占比</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>_portal_wayBillClickTrace</v>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>125622</v>
       </c>
       <c r="C2">
-        <v>1178.1466622088487</v>
+        <v>1178.14666220885</v>
       </c>
       <c r="D2">
         <v>731</v>
@@ -429,18 +1110,18 @@
         <v>114048</v>
       </c>
       <c r="H2">
-        <v>0.9078664565123943</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>_portal_wayBillClickTrace_map</v>
+        <v>0.907866456512394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
         <v>44418</v>
       </c>
       <c r="C3">
-        <v>828.0937457787384</v>
+        <v>828.093745778738</v>
       </c>
       <c r="D3">
         <v>699</v>
@@ -458,15 +1139,15 @@
         <v>0.949187266423522</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>_portal_wayBillClickTrace_h5</v>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
         <v>329960</v>
       </c>
       <c r="C4">
-        <v>673.7345799490847</v>
+        <v>673.734579949085</v>
       </c>
       <c r="D4">
         <v>658</v>
@@ -481,12 +1162,539 @@
         <v>313460</v>
       </c>
       <c r="H4">
-        <v>0.9499939386592314</v>
+        <v>0.949993938659231</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError sqref="A1:H4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="32.4375" customWidth="1"/>
+    <col min="3" max="3" width="12.7857142857143"/>
+    <col min="5" max="5" width="12.7857142857143"/>
+    <col min="6" max="6" width="11.6428571428571"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>125622</v>
+      </c>
+      <c r="C2">
+        <v>1178.14666220885</v>
+      </c>
+      <c r="D2">
+        <v>114048</v>
+      </c>
+      <c r="E2">
+        <v>0.907866456512394</v>
+      </c>
+      <c r="F2">
+        <f>B2*C2</f>
+        <v>148001140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>44418</v>
+      </c>
+      <c r="C3">
+        <v>828.093745778738</v>
+      </c>
+      <c r="D3">
+        <v>42161</v>
+      </c>
+      <c r="E3">
+        <v>0.949187266423522</v>
+      </c>
+      <c r="F3">
+        <f>B3*C3</f>
+        <v>36782268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>137727</v>
+      </c>
+      <c r="C4">
+        <v>1161.049373</v>
+      </c>
+      <c r="D4">
+        <v>125346</v>
+      </c>
+      <c r="E4">
+        <v>0.910104772</v>
+      </c>
+      <c r="F4">
+        <f>B4*C4</f>
+        <v>159907846.995171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>37201</v>
+      </c>
+      <c r="C5">
+        <v>825.4941803</v>
+      </c>
+      <c r="D5">
+        <v>35158</v>
+      </c>
+      <c r="E5">
+        <v>0.945082121</v>
+      </c>
+      <c r="F5">
+        <f>B5*C5</f>
+        <v>30709209.0013403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>30946</v>
+      </c>
+      <c r="C6">
+        <v>927.7468494</v>
+      </c>
+      <c r="D6">
+        <v>29055</v>
+      </c>
+      <c r="E6">
+        <v>0.938893557</v>
+      </c>
+      <c r="F6">
+        <f>B6*C6</f>
+        <v>28710054.0015324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>89966</v>
+      </c>
+      <c r="C7">
+        <v>1137.046051</v>
+      </c>
+      <c r="D7">
+        <v>82233</v>
+      </c>
+      <c r="E7">
+        <v>0.914045306</v>
+      </c>
+      <c r="F7">
+        <f>B7*C7</f>
+        <v>102295485.024266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>99661</v>
+      </c>
+      <c r="C8">
+        <v>1192.41950211216</v>
+      </c>
+      <c r="D8">
+        <v>90898</v>
+      </c>
+      <c r="E8">
+        <v>0.912071923821756</v>
+      </c>
+      <c r="F8">
+        <f>B8*C8</f>
+        <v>118837720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>30656</v>
+      </c>
+      <c r="C9">
+        <v>983.4750782881</v>
+      </c>
+      <c r="D9">
+        <v>28662</v>
+      </c>
+      <c r="E9">
+        <v>0.934955636743215</v>
+      </c>
+      <c r="F9">
+        <f>B9*C9</f>
+        <v>30149412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>99944</v>
+      </c>
+      <c r="C10">
+        <v>1193.03541</v>
+      </c>
+      <c r="D10">
+        <v>90971</v>
+      </c>
+      <c r="E10">
+        <v>0.910219723</v>
+      </c>
+      <c r="F10">
+        <f>B10*C10</f>
+        <v>119236731.01704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>30422</v>
+      </c>
+      <c r="C11">
+        <v>938.3879429</v>
+      </c>
+      <c r="D11">
+        <v>28511</v>
+      </c>
+      <c r="E11">
+        <v>0.937183617</v>
+      </c>
+      <c r="F11">
+        <f>B11*C11</f>
+        <v>28547637.9989038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>108582</v>
+      </c>
+      <c r="C12">
+        <v>1141.85345637398</v>
+      </c>
+      <c r="D12">
+        <v>98833</v>
+      </c>
+      <c r="E12">
+        <v>0.910215321139784</v>
+      </c>
+      <c r="F12">
+        <f>B12*C12</f>
+        <v>123984732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>29220</v>
+      </c>
+      <c r="C13">
+        <v>929.856536618754</v>
+      </c>
+      <c r="D13">
+        <v>27269</v>
+      </c>
+      <c r="E13">
+        <v>0.933230663928816</v>
+      </c>
+      <c r="F13">
+        <f>B13*C13</f>
+        <v>27170408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>39350</v>
+      </c>
+      <c r="C14">
+        <v>864.3515629</v>
+      </c>
+      <c r="D14">
+        <v>36864</v>
+      </c>
+      <c r="E14">
+        <v>0.93682338</v>
+      </c>
+      <c r="F14">
+        <f>B14*C14</f>
+        <v>34012234.000115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>137691</v>
+      </c>
+      <c r="C15">
+        <v>1291.513737</v>
+      </c>
+      <c r="D15">
+        <v>124911</v>
+      </c>
+      <c r="E15">
+        <v>0.907183476</v>
+      </c>
+      <c r="F15">
+        <f>B15*C15</f>
+        <v>177829817.961267</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16">
+        <f>SUM(B2:B15)</f>
+        <v>1041406</v>
+      </c>
+      <c r="C16">
+        <f>F16/B16</f>
+        <v>1119.80792889578</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D2:D15)</f>
+        <v>954920</v>
+      </c>
+      <c r="E16">
+        <f>D16/B16</f>
+        <v>0.916952658233196</v>
+      </c>
+      <c r="F16">
+        <f>SUM(F2:F15)</f>
+        <v>1166174695.99964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>322959</v>
+      </c>
+      <c r="C19">
+        <v>707.1654359</v>
+      </c>
+      <c r="D19">
+        <v>304053</v>
+      </c>
+      <c r="E19">
+        <v>0.941460061</v>
+      </c>
+      <c r="F19">
+        <f>B19*C19</f>
+        <v>228385442.012828</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>329960</v>
+      </c>
+      <c r="C20">
+        <v>673.734579949085</v>
+      </c>
+      <c r="D20">
+        <v>313460</v>
+      </c>
+      <c r="E20">
+        <v>0.949993938659231</v>
+      </c>
+      <c r="F20">
+        <f>B20*C20</f>
+        <v>222305462</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>325072</v>
+      </c>
+      <c r="C21">
+        <v>682.0983659</v>
+      </c>
+      <c r="D21">
+        <v>308448</v>
+      </c>
+      <c r="E21">
+        <v>0.94886056</v>
+      </c>
+      <c r="F21">
+        <f>B21*C21</f>
+        <v>221731079.999845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>220519</v>
+      </c>
+      <c r="C22">
+        <v>657.8803187</v>
+      </c>
+      <c r="D22">
+        <v>208946</v>
+      </c>
+      <c r="E22">
+        <v>0.947519261</v>
+      </c>
+      <c r="F22">
+        <f>B22*C22</f>
+        <v>145075109.999405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>226471</v>
+      </c>
+      <c r="C23">
+        <v>667.742894233699</v>
+      </c>
+      <c r="D23">
+        <v>214254</v>
+      </c>
+      <c r="E23">
+        <v>0.946054903276799</v>
+      </c>
+      <c r="F23">
+        <f>B23*C23</f>
+        <v>151224401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>231692</v>
+      </c>
+      <c r="C24">
+        <v>677.2237237</v>
+      </c>
+      <c r="D24">
+        <v>218646</v>
+      </c>
+      <c r="E24">
+        <v>0.943692488</v>
+      </c>
+      <c r="F24">
+        <f>B24*C24</f>
+        <v>156907318.9915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>249188</v>
+      </c>
+      <c r="C25">
+        <v>671.224846300785</v>
+      </c>
+      <c r="D25">
+        <v>235379</v>
+      </c>
+      <c r="E25">
+        <v>0.94458400886078</v>
+      </c>
+      <c r="F25">
+        <f>B25*C25</f>
+        <v>167261177</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26">
+        <f>SUM(B19:B25)</f>
+        <v>1905861</v>
+      </c>
+      <c r="C26">
+        <f>F26/B26</f>
+        <v>678.375805477723</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D19:D25)</f>
+        <v>1803186</v>
+      </c>
+      <c r="E26">
+        <f>D26/B26</f>
+        <v>0.94612671123445</v>
+      </c>
+      <c r="F26">
+        <f>SUM(F19:F25)</f>
+        <v>1292889991.00358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>